--- a/biology/Zoologie/Hémiprocné_longipenne/Hémiprocné_longipenne.xlsx
+++ b/biology/Zoologie/Hémiprocné_longipenne/Hémiprocné_longipenne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9miprocn%C3%A9_longipenne</t>
+          <t>Hémiprocné_longipenne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemiprocne longipennis
 L'Hémiprocné longipenne ou Martinet huppé de Java (Hemiprocne longipennis) est une espèce d'oiseaux de la famille des Hemiprocnidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9miprocn%C3%A9_longipenne</t>
+          <t>Hémiprocné_longipenne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le martinet arboricole huppé mesure jusqu'à 23 cm. Il a de longues ailes en faux et une queue très fourchue. Il se distingue à sa huppe dressée sur son front[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le martinet arboricole huppé mesure jusqu'à 23 cm. Il a de longues ailes en faux et une queue très fourchue. Il se distingue à sa huppe dressée sur son front.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9miprocn%C3%A9_longipenne</t>
+          <t>Hémiprocné_longipenne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il attrape des insectes au vol, comme les autres martinets.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9miprocn%C3%A9_longipenne</t>
+          <t>Hémiprocné_longipenne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit souvent en petit groupe.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%A9miprocn%C3%A9_longipenne</t>
+          <t>Hémiprocné_longipenne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ce martinet construit un nid très petit qu'il colle à une branche. 
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>H%C3%A9miprocn%C3%A9_longipenne</t>
+          <t>Hémiprocné_longipenne</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +659,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit au Brunei, en Indonésie, en Malaisie, au Myanmar, aux Philippines, à Singapour et en Thaïlande.
 </t>
